--- a/import/raw_data/iiasa/greenhouse_gas_emission_monetization_factors.xlsx
+++ b/import/raw_data/iiasa/greenhouse_gas_emission_monetization_factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A481DD-5870-44EB-9393-01C564C2F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,24 +348,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C1" s="1">
         <v>2030</v>
@@ -373,396 +374,396 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C2">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D2">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C3">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D3">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>27</v>
       </c>
       <c r="B4">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C4">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D4">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C5">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D5">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C6">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D6">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C7">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D7">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C8">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D8">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C9">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D9">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C10">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D10">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C11">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D11">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C12">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D12">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C13">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D13">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C14">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D14">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C15">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D15">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C16">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D16">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C17">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D17">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C18">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D18">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C19">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D19">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C20">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D20">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C21">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D21">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C22">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D22">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C23">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D23">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C24">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D24">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C25">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D25">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C26">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D26">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C27">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D27">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C28">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D28">
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>199000</v>
+        <v>300000</v>
       </c>
       <c r="C29">
-        <v>219000</v>
+        <v>335000</v>
       </c>
       <c r="D29">
-        <v>255000</v>
+        <v>435000</v>
       </c>
     </row>
   </sheetData>
